--- a/报销/2018_11_14/打车明细.xlsx
+++ b/报销/2018_11_14/打车明细.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000EE169-F6A3-4573-824B-BEE95F7BDA37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310AF223-E438-4D9F-9B1B-ABF9DB0A6FBB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -143,11 +144,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -155,6 +153,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,281 +441,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="4" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D4" s="2">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D5" s="2">
         <v>14</v>
       </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="6" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D6" s="2">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="7" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
         <v>62</v>
       </c>
-      <c r="G5">
+    </row>
+    <row r="8" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D13" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D17" s="2">
         <v>14</v>
       </c>
-      <c r="G6">
+    </row>
+    <row r="18" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>41</v>
-      </c>
-      <c r="G9">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="22" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3">
-        <f>SUM(C2:C19)</f>
+      <c r="D22" s="4">
+        <f>SUM(D4:D21)</f>
         <v>455</v>
       </c>
     </row>
@@ -720,4 +680,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E54D5C3-139D-4DAD-8E79-6843A5418B3F}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>